--- a/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4583B-B876-47C9-9AB2-DCFD0B1C251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CCF9F-CB74-44D4-B5F4-71962E04C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="690" windowWidth="28935" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>WeiJing203(robot)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeiJing201(alpha)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#内部服</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F10"/>
+  <dimension ref="C3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -529,43 +537,57 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>203</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CCF9F-CB74-44D4-B5F4-71962E04C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928FAE2-AB54-4062-9372-A86EAD396BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>mongodb://localhost:27017/</t>
-  </si>
-  <si>
-    <t>#版号服</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#中心服</t>
@@ -58,31 +54,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing1</t>
+    <t>WJBeta1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing2</t>
+    <t>WJBeta2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing201(banhao)</t>
+    <t>WJBeta202(center)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing203(robot)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing201(alpha)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#内部服</t>
+    <t>WJBeta203(robot)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F11"/>
+  <dimension ref="C3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -521,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -532,26 +516,26 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -560,35 +544,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>202</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>203</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928FAE2-AB54-4062-9372-A86EAD396BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8757A-8C1B-499F-A160-9A3365F30393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -50,23 +50,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#机器人</t>
+    <t>WJAlpha202(center)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta203(robot)</t>
+    <t>WJAlpha200</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F9"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -499,7 +487,7 @@
     </row>
     <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -510,41 +498,16 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>202</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="3">
-        <v>203</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
